--- a/20240308 report.xlsx
+++ b/20240308 report.xlsx
@@ -8,12 +8,16 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240211~20240217 MENU  MENU_SALE_PRICE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240211~20240217 MENU  MENU_SALE_PRICE의 그래프" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240211~20240217 USER_SEX  MENU_SALE_PRICE" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240211~20240217 USER_SEX  MENU_SALE_PRICE의 그래프" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240211~20240217 USER_SEX MENU  MENU_SALE_PRICE" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240211~20240217 USER_SEX MENU  MENU_SALE_PRICE의 그래프" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 MENU  MENU_SALE_PRICE" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 MENU  MENU_SALE_PRICE의 그래프" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 CATE_ID  MENU_SALE_PRICE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 CATE_ID  MENU_SALE_PRICE의 그래프" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 USER_SEX  MENU_SALE_PRICE" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 USER_SEX  MENU_SALE_PRICE의 그래프" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 USER_SEX MENU  MENU_SALE_PRICE" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 USER_SEX MENU  MENU_SALE_PRICE의 그래프" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 USER_SEX CATE_ID  MENU_SALE_PRICE" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20240222~20240229 USER_SEX CATE_ID  MENU_SALE_PRICE의 그래프" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -191,6 +195,66 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -520,14 +584,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>__________20240211~20240217보고서 입니다._______</t>
+          <t>__________20240222~20240229보고서 입니다._______</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>__________총판매액은 467700원 입니다_______</t>
+          <t>__________총판매액은 537000원 입니다_______</t>
         </is>
       </c>
     </row>
@@ -536,13 +600,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,10 +617,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>MENU</t>
+          <t>USER_SEX</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
+        <is>
+          <t>CATE_ID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>MENU_SALE_PRICE</t>
         </is>
@@ -565,57 +634,227 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>31500</v>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10800</v>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-5</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>16500</v>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-1</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>46200</v>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>28000</v>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>68100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-3</t>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>58300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>134000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>103100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MENU</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MENU_SALE_PRICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>10-1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10-2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10-3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20-2</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -625,61 +864,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20-4</t>
+          <t>20-3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-5</t>
+          <t>20-4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49400</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30-1</t>
+          <t>30-2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30-2</t>
+          <t>30-3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10500</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30-3</t>
+          <t>30-4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52500</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30-4</t>
+          <t>30-5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31500</v>
+        <v>60800</v>
       </c>
     </row>
     <row r="14">
@@ -689,7 +928,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="15">
@@ -699,37 +938,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>40-3</t>
+          <t>40-4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17500</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>40-4</t>
+          <t>40-5</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60800</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>40-5</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3500</v>
+        <v>52500</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,7 +1002,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>USER_SEX</t>
+          <t>CATE_ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -783,19 +1012,43 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>246500</v>
+        <v>109500</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>221200</v>
+        <v>137400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>138300</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +1081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,338 +1097,28 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>MENU</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>MENU_SALE_PRICE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10-1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31500</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>173500</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10-2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10-5</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20-1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20-2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20-3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20-4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>20-5</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>30-1</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>30-2</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>30-3</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>40-2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>40-3</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>40-4</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>40-5</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10-5</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>20-1</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>20-2</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>20-3</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>20-5</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>26600</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>30-3</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>45500</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>30-4</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>40-1</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>40-3</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>40-4</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>38000</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>363500</v>
       </c>
     </row>
   </sheetData>
@@ -1200,4 +1143,494 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>USER_SEX</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MENU</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MENU_SALE_PRICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10-1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10-2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10-3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10-5</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20-1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20-2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20-3</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20-4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30-4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30-5</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>40-1</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40-4</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>40-5</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10-1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10-2</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10-3</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10-5</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20-1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20-2</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20-3</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20-4</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>30-2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>30-3</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>30-4</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>30-5</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>40-1</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>40-2</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>40-4</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>40-5</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>38500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>